--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5219887-8040-404E-B636-4A913DA15C18}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA3E5ED-733E-403C-AAED-1AA3B28DB377}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16590" yWindow="2085" windowWidth="21240" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16590" yWindow="2085" windowWidth="21240" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="138">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -849,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G165"/>
+  <dimension ref="A2:G168"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="G163" sqref="G163"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3519,37 +3519,69 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
+      <c r="C163" s="8">
+        <v>-0.5</v>
+      </c>
+      <c r="D163" s="2">
+        <v>45230</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-    </row>
-    <row r="164" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="10" t="s">
+      <c r="G163" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B164" s="1"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B165" s="1"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B165" s="9" t="s">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B168" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9"/>
-      <c r="E165">
-        <f>SUM(B3:B163)+SUM(C3:C163)</f>
-        <v>26.5</v>
-      </c>
-      <c r="F165" s="10" t="s">
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168">
+        <f>SUM(B3:B166)+SUM(C3:C166)</f>
+        <v>26</v>
+      </c>
+      <c r="F168" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G165" s="10"/>
+      <c r="G168" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B165:D165"/>
-    <mergeCell ref="A164:XFD164"/>
-    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="A167:XFD167"/>
+    <mergeCell ref="F168:G168"/>
     <mergeCell ref="D92:D93"/>
     <mergeCell ref="E92:E93"/>
   </mergeCells>
@@ -3562,7 +3594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA3E5ED-733E-403C-AAED-1AA3B28DB377}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9774586A-D9E3-477C-A999-EA6A1A3D6CF2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16590" yWindow="2085" windowWidth="21240" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="3435" windowWidth="21240" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
     <sheet name="shout count" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="139">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>help dad with mlphone slack</t>
+  </si>
+  <si>
+    <t>slept shortly after 12 before a non-school day (CGC counselling)</t>
   </si>
 </sst>
 </file>
@@ -852,7 +855,7 @@
   <dimension ref="A2:G168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="G164" sqref="G164"/>
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3535,11 +3538,19 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
-      <c r="C164" s="8"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
+      <c r="C164" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D164" s="2">
+        <v>45231</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
+      <c r="G164" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
@@ -3570,7 +3581,7 @@
       <c r="D168" s="9"/>
       <c r="E168">
         <f>SUM(B3:B166)+SUM(C3:C166)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F168" s="10" t="s">
         <v>40</v>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9774586A-D9E3-477C-A999-EA6A1A3D6CF2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CDE29A-CC74-4766-A65F-BF8868AEF606}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3090" yWindow="3435" windowWidth="21240" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
     <sheet name="shout count" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="E164" sqref="E164"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2993,7 +2993,7 @@
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="8">
-        <v>-26</v>
+        <v>-20</v>
       </c>
       <c r="D131" s="2">
         <v>45042</v>
@@ -3581,7 +3581,7 @@
       <c r="D168" s="9"/>
       <c r="E168">
         <f>SUM(B3:B166)+SUM(C3:C166)</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F168" s="10" t="s">
         <v>40</v>
@@ -3606,8 +3606,8 @@
   <dimension ref="B1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CDE29A-CC74-4766-A65F-BF8868AEF606}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83C4521-9A97-4357-A77C-E80283530ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="3435" windowWidth="21240" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25455" yWindow="0" windowWidth="12945" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
     <sheet name="shout count" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="140">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -442,6 +451,9 @@
   </si>
   <si>
     <t>slept shortly after 12 before a non-school day (CGC counselling)</t>
+  </si>
+  <si>
+    <t>peaceful screentime stop</t>
   </si>
 </sst>
 </file>
@@ -854,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+    <sheetView topLeftCell="A126" workbookViewId="0">
       <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
@@ -3603,11 +3615,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:P30"/>
+  <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3661,7 +3673,7 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B28" si="0">B3+D4+E4</f>
+        <f t="shared" ref="B4:B29" si="0">B3+D4+E4</f>
         <v>88</v>
       </c>
       <c r="C4" s="2">
@@ -4040,10 +4052,20 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45235</v>
+      </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>-2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
@@ -4051,6 +4073,30 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83C4521-9A97-4357-A77C-E80283530ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0BCD22-823E-4D8B-BC9B-04B8D6E6A510}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25455" yWindow="0" windowWidth="12945" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25455" yWindow="0" windowWidth="12945" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
     <sheet name="shout count" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="141">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -432,9 +423,6 @@
     <t>put down phone@4pm as promised</t>
   </si>
   <si>
-    <t>cancelled</t>
-  </si>
-  <si>
     <t>attending math tuition against his will</t>
   </si>
   <si>
@@ -454,6 +442,12 @@
   </si>
   <si>
     <t>peaceful screentime stop</t>
+  </si>
+  <si>
+    <t>coming to see Doreen, but got up late</t>
+  </si>
+  <si>
+    <t>void</t>
   </si>
 </sst>
 </file>
@@ -866,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G168"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,7 +2802,7 @@
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C119" s="8"/>
       <c r="D119" s="2">
@@ -2840,7 +2834,7 @@
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C121" s="8"/>
       <c r="D121" s="2">
@@ -2874,7 +2868,7 @@
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="2">
@@ -2924,7 +2918,7 @@
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="2">
@@ -2956,7 +2950,7 @@
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C128" s="8"/>
       <c r="D128" s="2">
@@ -2988,7 +2982,7 @@
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="2">
@@ -3020,7 +3014,7 @@
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="2">
@@ -3036,7 +3030,7 @@
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C133" s="8"/>
       <c r="D133" s="2">
@@ -3068,7 +3062,7 @@
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="2">
@@ -3102,7 +3096,7 @@
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C137" s="8"/>
       <c r="D137" s="2">
@@ -3118,7 +3112,7 @@
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="2">
@@ -3134,7 +3128,7 @@
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C139" s="8"/>
       <c r="D139" s="2">
@@ -3168,7 +3162,7 @@
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="2">
@@ -3220,7 +3214,7 @@
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="2">
@@ -3252,7 +3246,7 @@
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="2">
@@ -3270,7 +3264,7 @@
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C147" s="8"/>
       <c r="D147" s="2">
@@ -3288,7 +3282,7 @@
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C148" s="8"/>
       <c r="D148" s="2">
@@ -3354,7 +3348,7 @@
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C152" s="8"/>
       <c r="D152" s="2">
@@ -3388,7 +3382,7 @@
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="2">
@@ -3483,7 +3477,7 @@
       </c>
       <c r="F159" s="1"/>
       <c r="G159" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.25">
@@ -3497,7 +3491,7 @@
       <c r="E160" s="2"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -3513,7 +3507,7 @@
       </c>
       <c r="F161" s="1"/>
       <c r="G161" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -3529,7 +3523,7 @@
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -3551,7 +3545,7 @@
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="D164" s="2">
         <v>45231</v>
@@ -3561,7 +3555,7 @@
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -3593,7 +3587,7 @@
       <c r="D168" s="9"/>
       <c r="E168">
         <f>SUM(B3:B166)+SUM(C3:C166)</f>
-        <v>31</v>
+        <v>31.5</v>
       </c>
       <c r="F168" s="10" t="s">
         <v>40</v>
@@ -3615,11 +3609,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:P34"/>
+  <dimension ref="B1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3673,7 +3667,7 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B29" si="0">B3+D4+E4</f>
+        <f t="shared" ref="B4:B30" si="0">B3+D4+E4</f>
         <v>88</v>
       </c>
       <c r="C4" s="2">
@@ -4048,7 +4042,7 @@
         <v>-3</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -4057,7 +4051,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="2">
-        <v>45235</v>
+        <v>45232</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
@@ -4068,10 +4062,20 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45235</v>
+      </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1">
+        <v>-2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
@@ -4097,6 +4101,12 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0BCD22-823E-4D8B-BC9B-04B8D6E6A510}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF3F005-97AD-4B4B-B8B5-A309D490C1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25455" yWindow="0" windowWidth="12945" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25455" yWindow="0" windowWidth="12945" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
     <sheet name="shout count" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="142">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -448,6 +457,9 @@
   </si>
   <si>
     <t>void</t>
+  </si>
+  <si>
+    <t>early shower as requested</t>
   </si>
 </sst>
 </file>
@@ -860,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+    <sheetView topLeftCell="A134" workbookViewId="0">
       <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
@@ -3609,11 +3621,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:P35"/>
+  <dimension ref="B1:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3667,7 +3679,7 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B30" si="0">B3+D4+E4</f>
+        <f t="shared" ref="B4:B31" si="0">B3+D4+E4</f>
         <v>88</v>
       </c>
       <c r="C4" s="2">
@@ -4067,21 +4079,31 @@
         <v>55</v>
       </c>
       <c r="C30" s="2">
-        <v>45235</v>
+        <v>45233</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
         <v>-2</v>
       </c>
       <c r="F30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45235</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <v>-2</v>
+      </c>
+      <c r="F31" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
@@ -4107,6 +4129,12 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF3F005-97AD-4B4B-B8B5-A309D490C1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E04185-1067-4FB9-AACC-E5D3E10B81D0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25455" yWindow="0" windowWidth="12945" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,26 +11,17 @@
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
     <sheet name="shout count" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="143">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -460,6 +451,9 @@
   </si>
   <si>
     <t>early shower as requested</t>
+  </si>
+  <si>
+    <t>kicking door Room2</t>
   </si>
 </sst>
 </file>
@@ -872,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G168"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
+    <sheetView topLeftCell="A143" workbookViewId="0">
       <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
@@ -3624,8 +3618,8 @@
   <dimension ref="B1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3679,7 +3673,7 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B31" si="0">B3+D4+E4</f>
+        <f t="shared" ref="B4:B32" si="0">B3+D4+E4</f>
         <v>88</v>
       </c>
       <c r="C4" s="2">
@@ -4106,10 +4100,20 @@
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45236</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5</v>
+      </c>
       <c r="E32" s="1"/>
+      <c r="F32" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E04185-1067-4FB9-AACC-E5D3E10B81D0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C479D40-02D8-4259-8420-E24BFDADFC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25455" yWindow="0" windowWidth="12945" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,10 +11,19 @@
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
     <sheet name="shout count" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -453,7 +462,7 @@
     <t>early shower as requested</t>
   </si>
   <si>
-    <t>kicking door Room2</t>
+    <t>kicking door(Room2)after meimei/mom went to bed</t>
   </si>
 </sst>
 </file>
@@ -3618,8 +3627,8 @@
   <dimension ref="B1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3629,7 +3638,7 @@
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="30" x14ac:dyDescent="0.25">

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C479D40-02D8-4259-8420-E24BFDADFC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD09AF4B-188C-45CF-B273-6B3FE57505B8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25455" yWindow="0" windowWidth="12945" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25455" yWindow="0" windowWidth="12945" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
     <sheet name="shout count" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="144">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -463,6 +454,9 @@
   </si>
   <si>
     <t>kicking door(Room2)after meimei/mom went to bed</t>
+  </si>
+  <si>
+    <t>4am sleep</t>
   </si>
 </sst>
 </file>
@@ -873,18 +867,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G168"/>
+  <dimension ref="A2:G170"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="65.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3574,46 +3568,72 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B165" s="1"/>
+      <c r="B165" s="1">
+        <v>2</v>
+      </c>
       <c r="C165" s="8"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
+      <c r="D165" s="2">
+        <v>45238</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="10" t="s">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B167" s="1"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B168" s="9" t="s">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B170" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="E168">
-        <f>SUM(B3:B166)+SUM(C3:C166)</f>
-        <v>31.5</v>
-      </c>
-      <c r="F168" s="10" t="s">
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170">
+        <f>SUM(B3:B168)+SUM(C3:C168)</f>
+        <v>33.5</v>
+      </c>
+      <c r="F170" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G168" s="10"/>
+      <c r="G170" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="A167:XFD167"/>
-    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="A169:XFD169"/>
+    <mergeCell ref="F170:G170"/>
     <mergeCell ref="D92:D93"/>
     <mergeCell ref="E92:E93"/>
   </mergeCells>
@@ -3626,9 +3646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD09AF4B-188C-45CF-B273-6B3FE57505B8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8848EFC5-0A09-412F-9C37-F327933E74C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25455" yWindow="0" windowWidth="12945" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25455" yWindow="450" windowWidth="12945" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="145">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>4am sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refused to take shower by 11.30pm as requested </t>
   </si>
 </sst>
 </file>
@@ -869,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
@@ -3646,9 +3649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4144,25 +4147,32 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2">
+        <v>45236</v>
+      </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="1"/>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8848EFC5-0A09-412F-9C37-F327933E74C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E379F6A-8D0B-4823-AF1E-A3CD911A8870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25455" yWindow="450" windowWidth="12945" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13875" yWindow="0" windowWidth="11580" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
     <sheet name="shout count" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="146">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -460,6 +469,9 @@
   </si>
   <si>
     <t xml:space="preserve">refused to take shower by 11.30pm as requested </t>
+  </si>
+  <si>
+    <t>discovery@better price + suggestion2use Visa instead of mastercard</t>
   </si>
 </sst>
 </file>
@@ -872,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G170"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="J163" sqref="J163"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3525,7 +3537,7 @@
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="8">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="D162" s="2">
         <v>45227</v>
@@ -3590,11 +3602,19 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
-      <c r="C166" s="8"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
+      <c r="C166" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D166" s="2">
+        <v>45237</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
+      <c r="G166" s="4" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
@@ -3625,7 +3645,7 @@
       <c r="D170" s="9"/>
       <c r="E170">
         <f>SUM(B3:B168)+SUM(C3:C168)</f>
-        <v>33.5</v>
+        <v>32</v>
       </c>
       <c r="F170" s="10" t="s">
         <v>40</v>
@@ -3649,7 +3669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E379F6A-8D0B-4823-AF1E-A3CD911A8870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37751B0A-B09E-4440-AA5C-EA252E9DF313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13875" yWindow="0" windowWidth="11580" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13875" yWindow="0" windowWidth="11580" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="149">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -472,6 +472,15 @@
   </si>
   <si>
     <t>discovery@better price + suggestion2use Visa instead of mastercard</t>
+  </si>
+  <si>
+    <t>12am punctual switch-off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">early shower  </t>
+  </si>
+  <si>
+    <t>Cristofori not too late</t>
   </si>
 </sst>
 </file>
@@ -884,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+    <sheetView topLeftCell="A110" workbookViewId="0">
       <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
@@ -3667,11 +3676,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:P36"/>
+  <dimension ref="B1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3725,7 +3734,7 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B32" si="0">B3+D4+E4</f>
+        <f t="shared" ref="B4:B36" si="0">B3+D4+E4</f>
         <v>88</v>
       </c>
       <c r="C4" s="2">
@@ -4168,7 +4177,10 @@
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
       <c r="C33" s="2">
         <v>45236</v>
       </c>
@@ -4181,22 +4193,70 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45238</v>
+      </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1">
+        <v>-2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45239</v>
+      </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1">
+        <v>-2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45239</v>
+      </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1">
+        <v>-3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37751B0A-B09E-4440-AA5C-EA252E9DF313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBB3AFF-973C-4BC5-8D65-879B43B3DCA2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13875" yWindow="0" windowWidth="11580" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14355" yWindow="0" windowWidth="11580" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
     <sheet name="shout count" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="150">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -480,7 +471,10 @@
     <t xml:space="preserve">early shower  </t>
   </si>
   <si>
-    <t>Cristofori not too late</t>
+    <t>Cristofori not too late, punctual stop@12a</t>
+  </si>
+  <si>
+    <t>no-phone day observed</t>
   </si>
 </sst>
 </file>
@@ -891,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G170"/>
+  <dimension ref="A2:G173"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+    <sheetView topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3627,45 +3621,77 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
-      <c r="C167" s="8"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
+      <c r="C167" s="8">
+        <v>-2</v>
+      </c>
+      <c r="D167" s="2">
+        <v>45240</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
+      <c r="G167" s="4" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
       <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-    </row>
-    <row r="169" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="10" t="s">
+      <c r="G168" s="4"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B169" s="1"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="4"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B170" s="1"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B170" s="9" t="s">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B173" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-      <c r="E170">
-        <f>SUM(B3:B168)+SUM(C3:C168)</f>
-        <v>32</v>
-      </c>
-      <c r="F170" s="10" t="s">
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173">
+        <f>SUM(B3:B171)+SUM(C3:C171)</f>
+        <v>30</v>
+      </c>
+      <c r="F173" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G170" s="10"/>
+      <c r="G173" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B170:D170"/>
-    <mergeCell ref="A169:XFD169"/>
-    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="A172:XFD172"/>
+    <mergeCell ref="F173:G173"/>
     <mergeCell ref="D92:D93"/>
     <mergeCell ref="E92:E93"/>
   </mergeCells>
@@ -3679,8 +3705,8 @@
   <dimension ref="B1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4227,14 +4253,14 @@
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2">
         <v>45239</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="F36" t="s">
         <v>148</v>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBB3AFF-973C-4BC5-8D65-879B43B3DCA2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8F77DB-3657-4D53-B9D5-7F609F584988}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14355" yWindow="0" windowWidth="11580" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="3435" windowWidth="21240" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
     <sheet name="shout count" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="153">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -475,6 +475,15 @@
   </si>
   <si>
     <t>no-phone day observed</t>
+  </si>
+  <si>
+    <t>3am power-off</t>
+  </si>
+  <si>
+    <t>taught meimei anyWheel</t>
+  </si>
+  <si>
+    <t>webcam assistance</t>
   </si>
 </sst>
 </file>
@@ -887,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G173"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="G184" sqref="G184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3636,20 +3645,38 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B168" s="1"/>
+      <c r="B168" s="1">
+        <v>1</v>
+      </c>
       <c r="C168" s="8"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="4"/>
+      <c r="D168" s="2">
+        <v>45241</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
-      <c r="C169" s="8"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
+      <c r="C169" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D169" s="2">
+        <v>45243</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F169" s="1"/>
-      <c r="G169" s="4"/>
+      <c r="G169" s="4" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
@@ -3702,11 +3729,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:P39"/>
+  <dimension ref="B1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3760,7 +3787,7 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B36" si="0">B3+D4+E4</f>
+        <f t="shared" ref="B4:B39" si="0">B3+D4+E4</f>
         <v>88</v>
       </c>
       <c r="C4" s="2">
@@ -4050,10 +4077,10 @@
       <c r="C23" s="2">
         <v>45158</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1">
+      <c r="D23" s="1">
         <v>-9</v>
       </c>
+      <c r="E23" s="1"/>
       <c r="F23" t="s">
         <v>116</v>
       </c>
@@ -4066,10 +4093,10 @@
       <c r="C24" s="2">
         <v>45161</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1">
+      <c r="D24" s="1">
         <v>-4</v>
       </c>
+      <c r="E24" s="1"/>
       <c r="F24" t="s">
         <v>118</v>
       </c>
@@ -4082,10 +4109,10 @@
       <c r="C25" s="2">
         <v>45171</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1">
+      <c r="D25" s="1">
         <v>-8</v>
       </c>
+      <c r="E25" s="1"/>
       <c r="F25" t="s">
         <v>119</v>
       </c>
@@ -4242,47 +4269,92 @@
       <c r="C35" s="2">
         <v>45239</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1">
+      <c r="D35" s="1">
         <v>-2</v>
       </c>
+      <c r="E35" s="1"/>
       <c r="F35" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
-        <f t="shared" si="0"/>
+        <f>B35+D36+E36</f>
         <v>47</v>
       </c>
       <c r="C36" s="2">
         <v>45239</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1">
+      <c r="D36" s="1">
         <v>-6</v>
       </c>
+      <c r="E36" s="1"/>
       <c r="F36" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45242</v>
+      </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="1"/>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45242</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-4</v>
+      </c>
       <c r="E38" s="1"/>
+      <c r="F38" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45242</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-1</v>
+      </c>
       <c r="E39" s="1"/>
+      <c r="F39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8F77DB-3657-4D53-B9D5-7F609F584988}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8777B0A7-48F9-4AA3-9F80-1945AE6967B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="3435" windowWidth="21240" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13875" yWindow="0" windowWidth="11580" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="155">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -484,6 +493,12 @@
   </si>
   <si>
     <t>webcam assistance</t>
+  </si>
+  <si>
+    <t>Touch session 1</t>
+  </si>
+  <si>
+    <t>use of force .. Warning</t>
   </si>
 </sst>
 </file>
@@ -896,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="G184" sqref="G184"/>
+    <sheetView topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3729,11 +3744,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:P42"/>
+  <dimension ref="B1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3787,7 +3802,7 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B39" si="0">B3+D4+E4</f>
+        <f t="shared" ref="B4:B41" si="0">B3+D4+E4</f>
         <v>88</v>
       </c>
       <c r="C4" s="2">
@@ -4339,16 +4354,36 @@
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45246</v>
+      </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1">
+        <v>-9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="1"/>
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45246</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
       <c r="E41" s="1"/>
+      <c r="F41" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
@@ -4356,6 +4391,30 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8777B0A7-48F9-4AA3-9F80-1945AE6967B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DB5380-BB51-48A7-9FD3-90557DA805FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13875" yWindow="0" windowWidth="11580" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="3435" windowWidth="21240" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
@@ -16,21 +16,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="156">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -499,6 +490,9 @@
   </si>
   <si>
     <t>use of force .. Warning</t>
+  </si>
+  <si>
+    <t>2am power-off</t>
   </si>
 </sst>
 </file>
@@ -909,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G173"/>
+  <dimension ref="A2:G175"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="G170" sqref="G170"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="G181" sqref="G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3539,7 +3533,9 @@
       <c r="D160" s="2">
         <v>45214</v>
       </c>
-      <c r="E160" s="2"/>
+      <c r="E160" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1" t="s">
         <v>133</v>
@@ -3695,45 +3691,77 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
-      <c r="C170" s="8"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
+      <c r="C170" s="8">
+        <v>-2</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45247</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
+      <c r="G170" s="4" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
+      <c r="B171" s="1">
+        <v>1</v>
+      </c>
+      <c r="C171" s="8"/>
+      <c r="D171" s="2">
+        <v>45247</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-    </row>
-    <row r="172" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="10" t="s">
+      <c r="G171" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B172" s="1"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B173" s="9" t="s">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B175" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-      <c r="E173">
-        <f>SUM(B3:B171)+SUM(C3:C171)</f>
-        <v>30</v>
-      </c>
-      <c r="F173" s="10" t="s">
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175">
+        <f>SUM(B3:B173)+SUM(C3:C173)</f>
+        <v>29</v>
+      </c>
+      <c r="F175" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G173" s="10"/>
+      <c r="G175" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="A172:XFD172"/>
-    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="B175:D175"/>
+    <mergeCell ref="A174:XFD174"/>
+    <mergeCell ref="F175:G175"/>
     <mergeCell ref="D92:D93"/>
     <mergeCell ref="E92:E93"/>
   </mergeCells>
@@ -3746,9 +3774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomLeft" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DB5380-BB51-48A7-9FD3-90557DA805FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962BBEFC-82CF-4456-ACB6-3809746F72E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="3435" windowWidth="21240" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="-120" windowWidth="28380" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="159">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -493,6 +493,15 @@
   </si>
   <si>
     <t>2am power-off</t>
+  </si>
+  <si>
+    <t>CompuThink  not too late</t>
+  </si>
+  <si>
+    <t>get up as promised at 10.35, and attend math tuition on time</t>
+  </si>
+  <si>
+    <t>1am phone lock. No adverse reaction</t>
   </si>
 </sst>
 </file>
@@ -903,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G175"/>
+  <dimension ref="A2:G179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="G181" sqref="G181"/>
+      <selection activeCell="G188" sqref="G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3541,7 +3550,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="8">
         <v>-0.5</v>
@@ -3557,7 +3566,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="8">
         <v>-2.5</v>
@@ -3573,7 +3582,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="8">
         <v>-0.5</v>
@@ -3589,7 +3598,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="8">
         <v>-0.5</v>
@@ -3605,7 +3614,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>2</v>
       </c>
@@ -3623,7 +3632,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="8">
         <v>-1</v>
@@ -3639,7 +3648,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="8">
         <v>-2</v>
@@ -3655,7 +3664,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>1</v>
       </c>
@@ -3673,7 +3682,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="8">
         <v>-1</v>
@@ -3689,7 +3698,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="8">
         <v>-2</v>
@@ -3705,7 +3714,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>1</v>
       </c>
@@ -3721,47 +3730,103 @@
         <v>155</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
+      <c r="C172" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D172" s="2">
+        <v>45249</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
+      <c r="G172" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B173" s="1">
+        <v>1</v>
+      </c>
+      <c r="C173" s="8"/>
+      <c r="D173" s="2">
+        <v>45250</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-    </row>
-    <row r="174" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="10" t="s">
+      <c r="G173" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B174" s="1"/>
+      <c r="C174" s="8">
+        <v>-2</v>
+      </c>
+      <c r="D174" s="2">
+        <v>45250</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45251</v>
+      </c>
+      <c r="F174" s="1"/>
+      <c r="G174" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B175" s="1"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="4"/>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B176" s="1"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B175" s="9" t="s">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B179" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
-      <c r="E175">
-        <f>SUM(B3:B173)+SUM(C3:C173)</f>
-        <v>29</v>
-      </c>
-      <c r="F175" s="10" t="s">
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179">
+        <f>SUM(B3:B177)+SUM(C3:C177)</f>
+        <v>27</v>
+      </c>
+      <c r="F179" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G175" s="10"/>
+      <c r="G179" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B175:D175"/>
-    <mergeCell ref="A174:XFD174"/>
-    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="A178:XFD178"/>
+    <mergeCell ref="F179:G179"/>
     <mergeCell ref="D92:D93"/>
     <mergeCell ref="E92:E93"/>
   </mergeCells>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962BBEFC-82CF-4456-ACB6-3809746F72E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969EC876-D6EC-4C20-9040-726E09611443}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="-120" windowWidth="28380" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="-120" windowWidth="28380" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
     <sheet name="shout count" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="160">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>1am phone lock. No adverse reaction</t>
+  </si>
+  <si>
+    <t>went to sleep past 2am</t>
   </si>
 </sst>
 </file>
@@ -914,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="G188" sqref="G188"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3765,13 +3768,13 @@
     <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="8">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D174" s="2">
         <v>45250</v>
       </c>
       <c r="E174" s="2">
-        <v>45251</v>
+        <v>45253</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="4" t="s">
@@ -3779,12 +3782,20 @@
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B175" s="1"/>
+      <c r="B175" s="1">
+        <v>1</v>
+      </c>
       <c r="C175" s="8"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
+      <c r="D175" s="2">
+        <v>45254</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F175" s="1"/>
-      <c r="G175" s="4"/>
+      <c r="G175" s="4" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
@@ -3815,7 +3826,7 @@
       <c r="D179" s="9"/>
       <c r="E179">
         <f>SUM(B3:B177)+SUM(C3:C177)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F179" s="10" t="s">
         <v>40</v>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969EC876-D6EC-4C20-9040-726E09611443}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E38F423-A320-4A05-B03F-16192CBDC6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="-120" windowWidth="28380" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
     <sheet name="shout count" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="162">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -477,9 +486,6 @@
     <t>no-phone day observed</t>
   </si>
   <si>
-    <t>3am power-off</t>
-  </si>
-  <si>
     <t>taught meimei anyWheel</t>
   </si>
   <si>
@@ -492,12 +498,6 @@
     <t>use of force .. Warning</t>
   </si>
   <si>
-    <t>2am power-off</t>
-  </si>
-  <si>
-    <t>CompuThink  not too late</t>
-  </si>
-  <si>
     <t>get up as promised at 10.35, and attend math tuition on time</t>
   </si>
   <si>
@@ -505,6 +505,21 @@
   </si>
   <si>
     <t>went to sleep past 2am</t>
+  </si>
+  <si>
+    <t>2am power-off #Fr night</t>
+  </si>
+  <si>
+    <t>3am power-off #Sat night</t>
+  </si>
+  <si>
+    <t>went to sleep past 2am #Su night</t>
+  </si>
+  <si>
+    <t>cum</t>
+  </si>
+  <si>
+    <t>CompuThink 4D not too late</t>
   </si>
 </sst>
 </file>
@@ -597,15 +612,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -635,6 +647,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G179"/>
+  <dimension ref="A2:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C175" sqref="C175"/>
+    <sheetView tabSelected="1" topLeftCell="C141" workbookViewId="0">
+      <selection activeCell="H175" sqref="H175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,15 +941,16 @@
     <col min="2" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="66.140625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -945,13 +960,16 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>2.5</v>
       </c>
@@ -962,14 +980,18 @@
       <c r="E3" s="2">
         <v>44227</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="7">
+        <f>SUM($B$3:C3)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>4</v>
       </c>
@@ -980,12 +1002,16 @@
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="7">
+        <f>SUM($B$3:C4)</f>
+        <v>6.5</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>19.5</v>
       </c>
@@ -996,14 +1022,18 @@
       <c r="E5" s="2">
         <v>44270</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="7">
+        <f>SUM($B$3:C5)</f>
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>25</v>
       </c>
@@ -1014,12 +1044,16 @@
       <c r="E6" s="2">
         <v>44320</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="7">
+        <f>SUM($B$3:C6)</f>
+        <v>51</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>-5</v>
@@ -1030,10 +1064,14 @@
       <c r="E7" s="2">
         <v>44311</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="7">
+        <f>SUM($B$3:C7)</f>
+        <v>46</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>1.5</v>
       </c>
@@ -1044,14 +1082,18 @@
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="7">
+        <f>SUM($B$3:C8)</f>
+        <v>47.5</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>0.5</v>
       </c>
@@ -1062,14 +1104,18 @@
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="7">
+        <f>SUM($B$3:C9)</f>
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>0.5</v>
       </c>
@@ -1080,14 +1126,18 @@
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="7">
+        <f>SUM($B$3:C10)</f>
+        <v>48.5</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1.5</v>
       </c>
@@ -1098,14 +1148,18 @@
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="7">
+        <f>SUM($B$3:C11)</f>
+        <v>50</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1">
         <v>-1</v>
@@ -1116,14 +1170,18 @@
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="7">
+        <f>SUM($B$3:C12)</f>
+        <v>49</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>0.5</v>
       </c>
@@ -1134,14 +1192,18 @@
       <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="7">
+        <f>SUM($B$3:C13)</f>
+        <v>49.5</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1">
         <f>-40*2</f>
@@ -1153,14 +1215,18 @@
       <c r="E14" s="2">
         <v>44370</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="7">
+        <f>SUM($B$3:C14)</f>
+        <v>-30.5</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>0.5</v>
       </c>
@@ -1171,12 +1237,16 @@
       <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1" t="s">
+      <c r="F15" s="7">
+        <f>SUM($B$3:C15)</f>
+        <v>-30</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>0.5</v>
       </c>
@@ -1187,12 +1257,16 @@
       <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
+      <c r="F16" s="7">
+        <f>SUM($B$3:C16)</f>
+        <v>-29.5</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>1</v>
       </c>
@@ -1203,14 +1277,18 @@
       <c r="E17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="7">
+        <f>SUM($B$3:C17)</f>
+        <v>-28.5</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>0.5</v>
       </c>
@@ -1221,14 +1299,18 @@
       <c r="E18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="7">
+        <f>SUM($B$3:C18)</f>
+        <v>-28</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>0.5</v>
       </c>
@@ -1239,14 +1321,18 @@
       <c r="E19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="7">
+        <f>SUM($B$3:C19)</f>
+        <v>-27.5</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>0.5</v>
       </c>
@@ -1257,14 +1343,18 @@
       <c r="E20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="7">
+        <f>SUM($B$3:C20)</f>
+        <v>-27</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>1</v>
       </c>
@@ -1275,12 +1365,16 @@
       <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="7">
+        <f>SUM($B$3:C21)</f>
+        <v>-26</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2">
@@ -1289,12 +1383,16 @@
       <c r="E22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
+      <c r="F22" s="7">
+        <f>SUM($B$3:C22)</f>
+        <v>-26</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>3</v>
       </c>
@@ -1305,14 +1403,18 @@
       <c r="E23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="7">
+        <f>SUM($B$3:C23)</f>
+        <v>-23</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>2</v>
       </c>
@@ -1323,14 +1425,18 @@
       <c r="E24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="7">
+        <f>SUM($B$3:C24)</f>
+        <v>-21</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>3</v>
       </c>
@@ -1341,14 +1447,18 @@
       <c r="E25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="7">
+        <f>SUM($B$3:C25)</f>
+        <v>-18</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>0.5</v>
       </c>
@@ -1359,12 +1469,16 @@
       <c r="E26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
+      <c r="F26" s="7">
+        <f>SUM($B$3:C26)</f>
+        <v>-17.5</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f>180/20</f>
         <v>9</v>
@@ -1374,12 +1488,16 @@
         <v>44397</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
+      <c r="F27" s="7">
+        <f>SUM($B$3:C27)</f>
+        <v>-8.5</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>2</v>
       </c>
@@ -1390,14 +1508,18 @@
       <c r="E28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="7">
+        <f>SUM($B$3:C28)</f>
+        <v>-6.5</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>3</v>
       </c>
@@ -1408,14 +1530,18 @@
       <c r="E29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="7">
+        <f>SUM($B$3:C29)</f>
+        <v>-3.5</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>1</v>
       </c>
@@ -1426,14 +1552,18 @@
       <c r="E30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="7">
+        <f>SUM($B$3:C30)</f>
+        <v>-2.5</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>1</v>
       </c>
@@ -1444,14 +1574,18 @@
       <c r="E31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="7">
+        <f>SUM($B$3:C31)</f>
+        <v>-1.5</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>2.5</v>
       </c>
@@ -1462,14 +1596,18 @@
       <c r="E32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="7">
+        <f>SUM($B$3:C32)</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1">
         <v>-1</v>
@@ -1478,10 +1616,14 @@
         <v>44419</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="7">
+        <f>SUM($B$3:C33)</f>
+        <v>0</v>
+      </c>
       <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>2.5</v>
       </c>
@@ -1490,12 +1632,16 @@
         <v>44421</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
+      <c r="F34" s="7">
+        <f>SUM($B$3:C34)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>5</v>
       </c>
@@ -1506,12 +1652,16 @@
       <c r="E35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
+      <c r="F35" s="7">
+        <f>SUM($B$3:C35)</f>
+        <v>7.5</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>30</v>
       </c>
@@ -1520,12 +1670,16 @@
         <v>44428</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
+      <c r="F36" s="7">
+        <f>SUM($B$3:C36)</f>
+        <v>37.5</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>3</v>
       </c>
@@ -1534,14 +1688,18 @@
         <v>44434</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="7">
+        <f>SUM($B$3:C37)</f>
+        <v>40.5</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1">
         <v>-4</v>
@@ -1552,12 +1710,16 @@
       <c r="E38" s="2">
         <v>44437</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
+      <c r="F38" s="7">
+        <f>SUM($B$3:C38)</f>
+        <v>36.5</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1">
         <v>-1</v>
@@ -1568,10 +1730,14 @@
       <c r="E39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="7">
+        <f>SUM($B$3:C39)</f>
+        <v>35.5</v>
+      </c>
       <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1">
         <v>-20</v>
@@ -1582,10 +1748,14 @@
       <c r="E40" s="2">
         <v>44451</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="7">
+        <f>SUM($B$3:C40)</f>
+        <v>15.5</v>
+      </c>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>20</v>
       </c>
@@ -1596,14 +1766,18 @@
       <c r="E41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="7">
+        <f>SUM($B$3:C41)</f>
+        <v>35.5</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>2</v>
       </c>
@@ -1614,16 +1788,20 @@
       <c r="E42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="7">
+        <f>SUM($B$3:C42)</f>
+        <v>37.5</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <f>-_xlfn.DAYS(E43,D43)*2-2</f>
         <v>-26</v>
       </c>
@@ -1633,28 +1811,36 @@
       <c r="E43" s="2">
         <v>44477</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1" t="s">
+      <c r="F43" s="7">
+        <f>SUM($B$3:C43)</f>
+        <v>11.5</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>30</v>
       </c>
-      <c r="C44" s="8"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="2">
         <v>44420</v>
       </c>
       <c r="E44" s="2">
         <v>44480</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1" t="s">
+      <c r="F44" s="7">
+        <f>SUM($B$3:C44)</f>
+        <v>41.5</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1">
         <v>-1</v>
@@ -1665,14 +1851,18 @@
       <c r="E45" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="7">
+        <f>SUM($B$3:C45)</f>
+        <v>40.5</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1">
         <v>-6</v>
@@ -1683,12 +1873,16 @@
       <c r="E46" s="2">
         <v>44481</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1" t="s">
+      <c r="F46" s="7">
+        <f>SUM($B$3:C46)</f>
+        <v>34.5</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>3</v>
       </c>
@@ -1699,12 +1893,16 @@
       <c r="E47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1" t="s">
+      <c r="F47" s="7">
+        <f>SUM($B$3:C47)</f>
+        <v>37.5</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1">
         <v>-2</v>
@@ -1715,12 +1913,16 @@
       <c r="E48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1" t="s">
+      <c r="F48" s="7">
+        <f>SUM($B$3:C48)</f>
+        <v>35.5</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>1</v>
       </c>
@@ -1731,14 +1933,18 @@
       <c r="E49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="7">
+        <f>SUM($B$3:C49)</f>
+        <v>36.5</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>2</v>
       </c>
@@ -1749,14 +1955,18 @@
       <c r="E50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="7">
+        <f>SUM($B$3:C50)</f>
+        <v>38.5</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>3</v>
       </c>
@@ -1767,12 +1977,16 @@
       <c r="E51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1" t="s">
+      <c r="F51" s="7">
+        <f>SUM($B$3:C51)</f>
+        <v>41.5</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>1.5</v>
       </c>
@@ -1783,14 +1997,18 @@
       <c r="E52" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="7">
+        <f>SUM($B$3:C52)</f>
+        <v>43</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>3</v>
       </c>
@@ -1801,14 +2019,18 @@
       <c r="E53" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="7">
+        <f>SUM($B$3:C53)</f>
+        <v>46</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>2</v>
       </c>
@@ -1819,14 +2041,18 @@
       <c r="E54" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="7">
+        <f>SUM($B$3:C54)</f>
+        <v>48</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <f>18*0.5</f>
         <v>9</v>
@@ -1838,12 +2064,16 @@
       <c r="E55" s="2">
         <v>44516</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
+      <c r="F55" s="7">
+        <f>SUM($B$3:C55)</f>
+        <v>57</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>1</v>
       </c>
@@ -1854,12 +2084,16 @@
       <c r="E56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1" t="s">
+      <c r="F56" s="7">
+        <f>SUM($B$3:C56)</f>
+        <v>58</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>0.5</v>
       </c>
@@ -1870,12 +2104,16 @@
       <c r="E57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
+      <c r="F57" s="7">
+        <f>SUM($B$3:C57)</f>
+        <v>58.5</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>7</v>
       </c>
@@ -1886,12 +2124,16 @@
       <c r="E58" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1" t="s">
+      <c r="F58" s="7">
+        <f>SUM($B$3:C58)</f>
+        <v>65.5</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>1</v>
       </c>
@@ -1902,14 +2144,18 @@
       <c r="E59" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="7">
+        <f>SUM($B$3:C59)</f>
+        <v>66.5</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>1</v>
       </c>
@@ -1920,14 +2166,18 @@
       <c r="E60" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1" t="s">
+      <c r="F60" s="7">
+        <f>SUM($B$3:C60)</f>
+        <v>67.5</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
-      <c r="C61" s="8">
+      <c r="C61" s="7">
         <f>-_xlfn.DAYS(E61,D61)*2-2</f>
         <v>-50</v>
       </c>
@@ -1937,12 +2187,16 @@
       <c r="E61" s="2">
         <v>44534</v>
       </c>
-      <c r="F61" s="1"/>
+      <c r="F61" s="7">
+        <f>SUM($B$3:C61)</f>
+        <v>17.5</v>
+      </c>
       <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
-      <c r="C62" s="8">
+      <c r="C62" s="7">
         <f>-_xlfn.DAYS(E62,D62)*2-2</f>
         <v>-10</v>
       </c>
@@ -1952,66 +2206,82 @@
       <c r="E62" s="2">
         <v>44540</v>
       </c>
-      <c r="F62" s="1"/>
+      <c r="F62" s="7">
+        <f>SUM($B$3:C62)</f>
+        <v>7.5</v>
+      </c>
       <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>1</v>
       </c>
-      <c r="C63" s="8"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="2">
         <v>44542</v>
       </c>
       <c r="E63" s="2">
         <v>44542</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="7">
+        <f>SUM($B$3:C63)</f>
+        <v>8.5</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>2</v>
       </c>
-      <c r="C64" s="8"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="2">
         <v>44552</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="7">
+        <f>SUM($B$3:C64)</f>
+        <v>10.5</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>10</v>
       </c>
-      <c r="C65" s="8"/>
+      <c r="C65" s="7"/>
       <c r="D65" s="2">
         <v>44530</v>
       </c>
       <c r="E65" s="2">
         <v>44559</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="7">
+        <f>SUM($B$3:C65)</f>
+        <v>20.5</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
-      <c r="C66" s="8">
+      <c r="C66" s="7">
         <v>-2</v>
       </c>
       <c r="D66" s="2">
@@ -2020,158 +2290,198 @@
       <c r="E66" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
+      <c r="F66" s="7">
+        <f>SUM($B$3:C66)</f>
+        <v>18.5</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>0.5</v>
       </c>
-      <c r="C67" s="8"/>
+      <c r="C67" s="7"/>
       <c r="D67" s="2">
         <v>44561</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1" t="s">
+      <c r="F67" s="7">
+        <f>SUM($B$3:C67)</f>
+        <v>19</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>1</v>
       </c>
-      <c r="C68" s="8"/>
+      <c r="C68" s="7"/>
       <c r="D68" s="2">
         <v>44561</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
+      <c r="F68" s="7">
+        <f>SUM($B$3:C68)</f>
+        <v>20</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>2</v>
       </c>
-      <c r="C69" s="8"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="2">
         <v>44567</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1" t="s">
+      <c r="F69" s="7">
+        <f>SUM($B$3:C69)</f>
+        <v>22</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>1</v>
       </c>
-      <c r="C70" s="8"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="2">
         <v>44569</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1" t="s">
+      <c r="F70" s="7">
+        <f>SUM($B$3:C70)</f>
+        <v>23</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>3.5</v>
       </c>
-      <c r="C71" s="8"/>
+      <c r="C71" s="7"/>
       <c r="D71" s="2">
         <v>44569</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
+      <c r="F71" s="7">
+        <f>SUM($B$3:C71)</f>
+        <v>26.5</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>2</v>
       </c>
-      <c r="C72" s="8"/>
+      <c r="C72" s="7"/>
       <c r="D72" s="2">
         <v>44576</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1" t="s">
+      <c r="F72" s="7">
+        <f>SUM($B$3:C72)</f>
+        <v>28.5</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>2</v>
       </c>
-      <c r="C73" s="8"/>
+      <c r="C73" s="7"/>
       <c r="D73" s="2">
         <v>44592</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1" t="s">
+      <c r="F73" s="7">
+        <f>SUM($B$3:C73)</f>
+        <v>30.5</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>1</v>
       </c>
-      <c r="C74" s="8"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="2">
         <v>44593</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1" t="s">
+      <c r="F74" s="7">
+        <f>SUM($B$3:C74)</f>
+        <v>31.5</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>1</v>
       </c>
-      <c r="C75" s="8"/>
+      <c r="C75" s="7"/>
       <c r="D75" s="2">
         <v>44596</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1" t="s">
+      <c r="F75" s="7">
+        <f>SUM($B$3:C75)</f>
+        <v>32.5</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
-      <c r="C76" s="8">
+      <c r="C76" s="7">
         <v>-4</v>
       </c>
       <c r="D76" s="2">
@@ -2180,94 +2490,118 @@
       <c r="E76" s="2">
         <v>44598</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1" t="s">
+      <c r="F76" s="7">
+        <f>SUM($B$3:C76)</f>
+        <v>28.5</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>1</v>
       </c>
-      <c r="C77" s="8"/>
+      <c r="C77" s="7"/>
       <c r="D77" s="2">
         <v>44609</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1" t="s">
+      <c r="F77" s="7">
+        <f>SUM($B$3:C77)</f>
+        <v>29.5</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>1</v>
       </c>
-      <c r="C78" s="8"/>
+      <c r="C78" s="7"/>
       <c r="D78" s="2">
         <v>44619</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1" t="s">
+      <c r="F78" s="7">
+        <f>SUM($B$3:C78)</f>
+        <v>30.5</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>0.5</v>
       </c>
-      <c r="C79" s="8"/>
+      <c r="C79" s="7"/>
       <c r="D79" s="2">
         <v>44621</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1" t="s">
+      <c r="F79" s="7">
+        <f>SUM($B$3:C79)</f>
+        <v>31</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>4</v>
       </c>
-      <c r="C80" s="8"/>
+      <c r="C80" s="7"/>
       <c r="D80" s="2">
         <v>44631</v>
       </c>
       <c r="E80" s="2">
         <v>44639</v>
       </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1" t="s">
+      <c r="F80" s="7">
+        <f>SUM($B$3:C80)</f>
+        <v>35</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>1</v>
       </c>
-      <c r="C81" s="8"/>
+      <c r="C81" s="7"/>
       <c r="D81" s="2">
         <v>44641</v>
       </c>
       <c r="E81" s="2">
         <v>44641</v>
       </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1" t="s">
+      <c r="F81" s="7">
+        <f>SUM($B$3:C81)</f>
+        <v>36</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
-      <c r="C82" s="8">
+      <c r="C82" s="7">
         <v>-11</v>
       </c>
       <c r="D82" s="2">
@@ -2276,94 +2610,118 @@
       <c r="E82" s="2">
         <v>44647</v>
       </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1" t="s">
+      <c r="F82" s="7">
+        <f>SUM($B$3:C82)</f>
+        <v>25</v>
+      </c>
+      <c r="G82" s="1"/>
+      <c r="H82" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>2</v>
       </c>
-      <c r="C83" s="8"/>
+      <c r="C83" s="7"/>
       <c r="D83" s="2">
         <v>44646</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1" t="s">
+      <c r="F83" s="7">
+        <f>SUM($B$3:C83)</f>
+        <v>27</v>
+      </c>
+      <c r="G83" s="1"/>
+      <c r="H83" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>1</v>
       </c>
-      <c r="C84" s="8"/>
+      <c r="C84" s="7"/>
       <c r="D84" s="2">
         <v>44648</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1" t="s">
+      <c r="F84" s="7">
+        <f>SUM($B$3:C84)</f>
+        <v>28</v>
+      </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>1</v>
       </c>
-      <c r="C85" s="8"/>
+      <c r="C85" s="7"/>
       <c r="D85" s="2">
         <v>44655</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1" t="s">
+      <c r="F85" s="7">
+        <f>SUM($B$3:C85)</f>
+        <v>29</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>1</v>
       </c>
-      <c r="C86" s="8"/>
+      <c r="C86" s="7"/>
       <c r="D86" s="2">
         <v>44660</v>
       </c>
       <c r="E86" s="2">
         <v>44661</v>
       </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1" t="s">
+      <c r="F86" s="7">
+        <f>SUM($B$3:C86)</f>
+        <v>30</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>2</v>
       </c>
-      <c r="C87" s="8"/>
+      <c r="C87" s="7"/>
       <c r="D87" s="2">
         <v>44676</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1" t="s">
+      <c r="F87" s="7">
+        <f>SUM($B$3:C87)</f>
+        <v>32</v>
+      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
-      <c r="C88" s="8">
+      <c r="C88" s="7">
         <v>-4</v>
       </c>
       <c r="D88" s="2">
@@ -2372,30 +2730,38 @@
       <c r="E88" s="2">
         <v>44683</v>
       </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1" t="s">
+      <c r="F88" s="7">
+        <f>SUM($B$3:C88)</f>
+        <v>28</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>1</v>
       </c>
-      <c r="C89" s="8"/>
+      <c r="C89" s="7"/>
       <c r="D89" s="2">
         <v>44688</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1" t="s">
+      <c r="F89" s="7">
+        <f>SUM($B$3:C89)</f>
+        <v>29</v>
+      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
-      <c r="C90" s="8">
+      <c r="C90" s="7">
         <v>-2</v>
       </c>
       <c r="D90" s="2">
@@ -2404,74 +2770,94 @@
       <c r="E90" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1" t="s">
+      <c r="F90" s="7">
+        <f>SUM($B$3:C90)</f>
+        <v>27</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>1</v>
       </c>
-      <c r="C91" s="8"/>
+      <c r="C91" s="7"/>
       <c r="D91" s="2">
         <v>44693</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1" t="s">
+      <c r="F91" s="7">
+        <f>SUM($B$3:C91)</f>
+        <v>28</v>
+      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>4</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="11">
+      <c r="C92" s="7"/>
+      <c r="D92" s="10">
         <v>44695</v>
       </c>
-      <c r="E92" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1" t="s">
+      <c r="E92" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" s="7">
+        <f>SUM($B$3:C92)</f>
+        <v>32</v>
+      </c>
+      <c r="G92" s="1"/>
+      <c r="H92" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>1</v>
       </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1" t="s">
+      <c r="C93" s="7"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="7">
+        <f>SUM($B$3:C93)</f>
+        <v>33</v>
+      </c>
+      <c r="G93" s="1"/>
+      <c r="H93" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>1</v>
       </c>
-      <c r="C94" s="8"/>
+      <c r="C94" s="7"/>
       <c r="D94" s="2">
         <v>44700</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1" t="s">
+      <c r="F94" s="7">
+        <f>SUM($B$3:C94)</f>
+        <v>34</v>
+      </c>
+      <c r="G94" s="1"/>
+      <c r="H94" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
-      <c r="C95" s="8">
+      <c r="C95" s="7">
         <v>-1</v>
       </c>
       <c r="D95" s="2">
@@ -2480,256 +2866,320 @@
       <c r="E95" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1" t="s">
+      <c r="F95" s="7">
+        <f>SUM($B$3:C95)</f>
+        <v>33</v>
+      </c>
+      <c r="G95" s="1"/>
+      <c r="H95" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>2</v>
       </c>
-      <c r="C96" s="8"/>
+      <c r="C96" s="7"/>
       <c r="D96" s="2">
         <v>44708</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1" t="s">
+      <c r="F96" s="7">
+        <f>SUM($B$3:C96)</f>
+        <v>35</v>
+      </c>
+      <c r="G96" s="1"/>
+      <c r="H96" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>1</v>
       </c>
-      <c r="C97" s="8"/>
+      <c r="C97" s="7"/>
       <c r="D97" s="2">
         <v>44708</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1" t="s">
+      <c r="F97" s="7">
+        <f>SUM($B$3:C97)</f>
+        <v>36</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>1</v>
       </c>
-      <c r="C98" s="8"/>
+      <c r="C98" s="7"/>
       <c r="D98" s="2">
         <v>44716</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1" t="s">
+      <c r="F98" s="7">
+        <f>SUM($B$3:C98)</f>
+        <v>37</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>0.5</v>
       </c>
-      <c r="C99" s="8"/>
+      <c r="C99" s="7"/>
       <c r="D99" s="2">
         <v>44716</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1" t="s">
+      <c r="F99" s="7">
+        <f>SUM($B$3:C99)</f>
+        <v>37.5</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>1</v>
       </c>
-      <c r="C100" s="8"/>
+      <c r="C100" s="7"/>
       <c r="D100" s="2">
         <v>44723</v>
       </c>
       <c r="E100" s="2"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1" t="s">
+      <c r="F100" s="7">
+        <f>SUM($B$3:C100)</f>
+        <v>38.5</v>
+      </c>
+      <c r="G100" s="1"/>
+      <c r="H100" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>2</v>
       </c>
-      <c r="C101" s="8"/>
+      <c r="C101" s="7"/>
       <c r="D101" s="2">
         <v>44728</v>
       </c>
       <c r="E101" s="2"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1" t="s">
+      <c r="F101" s="7">
+        <f>SUM($B$3:C101)</f>
+        <v>40.5</v>
+      </c>
+      <c r="G101" s="1"/>
+      <c r="H101" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>24</v>
       </c>
-      <c r="C102" s="8"/>
+      <c r="C102" s="7"/>
       <c r="D102" s="2">
         <v>44739</v>
       </c>
       <c r="E102" s="2">
         <v>44755</v>
       </c>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1" t="s">
+      <c r="F102" s="7">
+        <f>SUM($B$3:C102)</f>
+        <v>64.5</v>
+      </c>
+      <c r="G102" s="1"/>
+      <c r="H102" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>2</v>
       </c>
-      <c r="C103" s="8"/>
+      <c r="C103" s="7"/>
       <c r="D103" s="2">
         <v>44758</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1" t="s">
+      <c r="F103" s="7">
+        <f>SUM($B$3:C103)</f>
+        <v>66.5</v>
+      </c>
+      <c r="G103" s="1"/>
+      <c r="H103" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>4</v>
       </c>
-      <c r="C104" s="8"/>
+      <c r="C104" s="7"/>
       <c r="D104" s="2">
         <v>44813</v>
       </c>
       <c r="E104" s="2">
         <v>44814</v>
       </c>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1" t="s">
+      <c r="F104" s="7">
+        <f>SUM($B$3:C104)</f>
+        <v>70.5</v>
+      </c>
+      <c r="G104" s="1"/>
+      <c r="H104" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>2</v>
       </c>
-      <c r="C105" s="8"/>
+      <c r="C105" s="7"/>
       <c r="D105" s="2">
         <v>44821</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1" t="s">
+      <c r="F105" s="7">
+        <f>SUM($B$3:C105)</f>
+        <v>72.5</v>
+      </c>
+      <c r="G105" s="1"/>
+      <c r="H105" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>1.5</v>
       </c>
-      <c r="C106" s="8"/>
+      <c r="C106" s="7"/>
       <c r="D106" s="2">
         <v>44854</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1" t="s">
+      <c r="F106" s="7">
+        <f>SUM($B$3:C106)</f>
+        <v>74</v>
+      </c>
+      <c r="G106" s="1"/>
+      <c r="H106" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>1</v>
       </c>
-      <c r="C107" s="8"/>
+      <c r="C107" s="7"/>
       <c r="D107" s="2">
         <v>44857</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F107" s="7">
+        <f>SUM($B$3:C107)</f>
+        <v>75</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="H107" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>1</v>
       </c>
-      <c r="C108" s="8"/>
+      <c r="C108" s="7"/>
       <c r="D108" s="2">
         <v>44858</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="7">
+        <f>SUM($B$3:C108)</f>
+        <v>76</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="H108" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>1.5</v>
       </c>
-      <c r="C109" s="8"/>
+      <c r="C109" s="7"/>
       <c r="D109" s="2">
         <v>44871</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F109" s="7">
+        <f>SUM($B$3:C109)</f>
+        <v>77.5</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="H109" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>1</v>
       </c>
-      <c r="C110" s="8"/>
+      <c r="C110" s="7"/>
       <c r="D110" s="2">
         <v>44878</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1" t="s">
+      <c r="F110" s="7">
+        <f>SUM($B$3:C110)</f>
+        <v>78.5</v>
+      </c>
+      <c r="G110" s="1"/>
+      <c r="H110" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
-      <c r="C111" s="8">
+      <c r="C111" s="7">
         <v>-4</v>
       </c>
       <c r="D111" s="2">
@@ -2738,14 +3188,18 @@
       <c r="E111" s="2">
         <v>44884</v>
       </c>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1" t="s">
+      <c r="F111" s="7">
+        <f>SUM($B$3:C111)</f>
+        <v>74.5</v>
+      </c>
+      <c r="G111" s="1"/>
+      <c r="H111" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
-      <c r="C112" s="8">
+      <c r="C112" s="7">
         <v>-8</v>
       </c>
       <c r="D112" s="2">
@@ -2754,162 +3208,202 @@
       <c r="E112" s="2">
         <v>44889</v>
       </c>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1" t="s">
+      <c r="F112" s="7">
+        <f>SUM($B$3:C112)</f>
+        <v>66.5</v>
+      </c>
+      <c r="G112" s="1"/>
+      <c r="H112" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>1</v>
       </c>
-      <c r="C113" s="8"/>
+      <c r="C113" s="7"/>
       <c r="D113" s="2">
         <v>44887</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1" t="s">
+      <c r="F113" s="7">
+        <f>SUM($B$3:C113)</f>
+        <v>67.5</v>
+      </c>
+      <c r="G113" s="1"/>
+      <c r="H113" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>2</v>
       </c>
-      <c r="C114" s="8"/>
+      <c r="C114" s="7"/>
       <c r="D114" s="2">
         <v>44901</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F114" s="7">
+        <f>SUM($B$3:C114)</f>
+        <v>69.5</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="H114" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>1</v>
       </c>
-      <c r="C115" s="8"/>
+      <c r="C115" s="7"/>
       <c r="D115" s="2">
         <v>44915</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1" t="s">
+      <c r="F115" s="7">
+        <f>SUM($B$3:C115)</f>
+        <v>70.5</v>
+      </c>
+      <c r="G115" s="1"/>
+      <c r="H115" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>1</v>
       </c>
-      <c r="C116" s="8"/>
+      <c r="C116" s="7"/>
       <c r="D116" s="2">
         <v>44915</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1" t="s">
+      <c r="F116" s="7">
+        <f>SUM($B$3:C116)</f>
+        <v>71.5</v>
+      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>1</v>
       </c>
-      <c r="C117" s="8"/>
+      <c r="C117" s="7"/>
       <c r="D117" s="2">
         <v>44919</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F117" s="1"/>
+      <c r="F117" s="7">
+        <f>SUM($B$3:C117)</f>
+        <v>72.5</v>
+      </c>
       <c r="G117" s="1"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="15"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>1</v>
       </c>
-      <c r="C118" s="8"/>
+      <c r="C118" s="7"/>
       <c r="D118" s="2">
         <v>44926</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F118" s="7">
+        <f>SUM($B$3:C118)</f>
+        <v>73.5</v>
+      </c>
+      <c r="G118" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="H118" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C119" s="8"/>
+      <c r="C119" s="7"/>
       <c r="D119" s="2">
         <v>44928</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F119" s="7">
+        <f>SUM($B$3:C119)</f>
+        <v>73.5</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="H119" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
-      <c r="C120" s="8">
+      <c r="C120" s="7">
         <v>-1</v>
       </c>
       <c r="D120" s="2">
         <v>44930</v>
       </c>
       <c r="E120" s="2"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1" t="s">
+      <c r="F120" s="7">
+        <f>SUM($B$3:C120)</f>
+        <v>72.5</v>
+      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C121" s="8"/>
+      <c r="C121" s="7"/>
       <c r="D121" s="2">
         <v>44931</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F121" s="7">
+        <f>SUM($B$3:C121)</f>
+        <v>72.5</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="H121" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
-      <c r="C122" s="8">
+      <c r="C122" s="7">
         <v>-1</v>
       </c>
       <c r="D122" s="2">
@@ -2918,32 +3412,40 @@
       <c r="E122" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1" t="s">
+      <c r="F122" s="7">
+        <f>SUM($B$3:C122)</f>
+        <v>71.5</v>
+      </c>
+      <c r="G122" s="1"/>
+      <c r="H122" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C123" s="8"/>
+      <c r="C123" s="7"/>
       <c r="D123" s="2">
         <v>44935</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F123" s="7">
+        <f>SUM($B$3:C123)</f>
+        <v>71.5</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="H123" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
-      <c r="C124" s="8">
+      <c r="C124" s="7">
         <v>-2</v>
       </c>
       <c r="D124" s="2">
@@ -2952,14 +3454,18 @@
       <c r="E124" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1" t="s">
+      <c r="F124" s="7">
+        <f>SUM($B$3:C124)</f>
+        <v>69.5</v>
+      </c>
+      <c r="G124" s="1"/>
+      <c r="H124" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
-      <c r="C125" s="8">
+      <c r="C125" s="7">
         <v>-2</v>
       </c>
       <c r="D125" s="2">
@@ -2968,30 +3474,38 @@
       <c r="E125" s="2">
         <v>44953</v>
       </c>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1" t="s">
+      <c r="F125" s="7">
+        <f>SUM($B$3:C125)</f>
+        <v>67.5</v>
+      </c>
+      <c r="G125" s="1"/>
+      <c r="H125" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C126" s="8"/>
+      <c r="C126" s="7"/>
       <c r="D126" s="2">
         <v>44998</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1" t="s">
+      <c r="F126" s="7">
+        <f>SUM($B$3:C126)</f>
+        <v>67.5</v>
+      </c>
+      <c r="G126" s="1"/>
+      <c r="H126" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
-      <c r="C127" s="8">
+      <c r="C127" s="7">
         <v>-2</v>
       </c>
       <c r="D127" s="2">
@@ -3000,30 +3514,38 @@
       <c r="E127" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1" t="s">
+      <c r="F127" s="7">
+        <f>SUM($B$3:C127)</f>
+        <v>65.5</v>
+      </c>
+      <c r="G127" s="1"/>
+      <c r="H127" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C128" s="8"/>
+      <c r="C128" s="7"/>
       <c r="D128" s="2">
         <v>45003</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1" t="s">
+      <c r="F128" s="7">
+        <f>SUM($B$3:C128)</f>
+        <v>65.5</v>
+      </c>
+      <c r="G128" s="1"/>
+      <c r="H128" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
-      <c r="C129" s="8">
+      <c r="C129" s="7">
         <v>-1</v>
       </c>
       <c r="D129" s="2">
@@ -3032,30 +3554,38 @@
       <c r="E129" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1" t="s">
+      <c r="F129" s="7">
+        <f>SUM($B$3:C129)</f>
+        <v>64.5</v>
+      </c>
+      <c r="G129" s="1"/>
+      <c r="H129" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C130" s="8"/>
+      <c r="C130" s="7"/>
       <c r="D130" s="2">
         <v>45037</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1" t="s">
+      <c r="F130" s="7">
+        <f>SUM($B$3:C130)</f>
+        <v>64.5</v>
+      </c>
+      <c r="G130" s="1"/>
+      <c r="H130" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
-      <c r="C131" s="8">
+      <c r="C131" s="7">
         <v>-20</v>
       </c>
       <c r="D131" s="2">
@@ -3064,46 +3594,58 @@
       <c r="E131" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1" t="s">
+      <c r="F131" s="7">
+        <f>SUM($B$3:C131)</f>
+        <v>44.5</v>
+      </c>
+      <c r="G131" s="1"/>
+      <c r="H131" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C132" s="8"/>
+      <c r="C132" s="7"/>
       <c r="D132" s="2">
         <v>45051</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1" t="s">
+      <c r="F132" s="7">
+        <f>SUM($B$3:C132)</f>
+        <v>44.5</v>
+      </c>
+      <c r="G132" s="1"/>
+      <c r="H132" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C133" s="8"/>
+      <c r="C133" s="7"/>
       <c r="D133" s="2">
         <v>45066</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1" t="s">
+      <c r="F133" s="7">
+        <f>SUM($B$3:C133)</f>
+        <v>44.5</v>
+      </c>
+      <c r="G133" s="1"/>
+      <c r="H133" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
-      <c r="C134" s="8">
+      <c r="C134" s="7">
         <v>-4</v>
       </c>
       <c r="D134" s="2">
@@ -3112,182 +3654,226 @@
       <c r="E134" s="2">
         <v>45071</v>
       </c>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1" t="s">
+      <c r="F134" s="7">
+        <f>SUM($B$3:C134)</f>
+        <v>40.5</v>
+      </c>
+      <c r="G134" s="1"/>
+      <c r="H134" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C135" s="8"/>
+      <c r="C135" s="7"/>
       <c r="D135" s="2">
         <v>45074</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F135" s="7">
+        <f>SUM($B$3:C135)</f>
+        <v>40.5</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="H135" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>2</v>
       </c>
-      <c r="C136" s="8"/>
+      <c r="C136" s="7"/>
       <c r="D136" s="2">
         <v>45078</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1" t="s">
+      <c r="F136" s="7">
+        <f>SUM($B$3:C136)</f>
+        <v>42.5</v>
+      </c>
+      <c r="G136" s="1"/>
+      <c r="H136" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C137" s="8"/>
+      <c r="C137" s="7"/>
       <c r="D137" s="2">
         <v>45080</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1" t="s">
+      <c r="F137" s="7">
+        <f>SUM($B$3:C137)</f>
+        <v>42.5</v>
+      </c>
+      <c r="G137" s="1"/>
+      <c r="H137" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C138" s="8"/>
+      <c r="C138" s="7"/>
       <c r="D138" s="2">
         <v>45117</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1" t="s">
+      <c r="F138" s="7">
+        <f>SUM($B$3:C138)</f>
+        <v>42.5</v>
+      </c>
+      <c r="G138" s="1"/>
+      <c r="H138" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C139" s="8"/>
+      <c r="C139" s="7"/>
       <c r="D139" s="2">
         <v>45125</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1" t="s">
+      <c r="F139" s="7">
+        <f>SUM($B$3:C139)</f>
+        <v>42.5</v>
+      </c>
+      <c r="G139" s="1"/>
+      <c r="H139" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>0.5</v>
       </c>
-      <c r="C140" s="8"/>
+      <c r="C140" s="7"/>
       <c r="D140" s="2">
         <v>45130</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="F140" s="7">
+        <f>SUM($B$3:C140)</f>
+        <v>43</v>
+      </c>
+      <c r="G140" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="H140" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C141" s="8"/>
+      <c r="C141" s="7"/>
       <c r="D141" s="2">
         <v>45145</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="F141" s="7">
+        <f>SUM($B$3:C141)</f>
+        <v>43</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="H141" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>1</v>
       </c>
-      <c r="C142" s="8"/>
+      <c r="C142" s="7"/>
       <c r="D142" s="2">
         <v>45148</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="F142" s="7">
+        <f>SUM($B$3:C142)</f>
+        <v>44</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="H142" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <v>2</v>
       </c>
-      <c r="C143" s="8"/>
+      <c r="C143" s="7"/>
       <c r="D143" s="2">
         <v>45148</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1" t="s">
+      <c r="F143" s="7">
+        <f>SUM($B$3:C143)</f>
+        <v>46</v>
+      </c>
+      <c r="G143" s="1"/>
+      <c r="H143" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C144" s="8"/>
+      <c r="C144" s="7"/>
       <c r="D144" s="2">
         <v>45148</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1" t="s">
+      <c r="F144" s="7">
+        <f>SUM($B$3:C144)</f>
+        <v>46</v>
+      </c>
+      <c r="G144" s="1"/>
+      <c r="H144" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
-      <c r="C145" s="8">
+      <c r="C145" s="7">
         <v>-2</v>
       </c>
       <c r="D145" s="2">
@@ -3296,68 +3882,84 @@
       <c r="E145" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1" t="s">
+      <c r="F145" s="7">
+        <f>SUM($B$3:C145)</f>
+        <v>44</v>
+      </c>
+      <c r="G145" s="1"/>
+      <c r="H145" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C146" s="8"/>
+      <c r="C146" s="7"/>
       <c r="D146" s="2">
         <v>45158</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F146" s="7">
+        <f>SUM($B$3:C146)</f>
+        <v>44</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="H146" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C147" s="8"/>
+      <c r="C147" s="7"/>
       <c r="D147" s="2">
         <v>45168</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="F147" s="7">
+        <f>SUM($B$3:C147)</f>
+        <v>44</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="H147" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C148" s="8"/>
+      <c r="C148" s="7"/>
       <c r="D148" s="2">
         <v>45172</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="F148" s="7">
+        <f>SUM($B$3:C148)</f>
+        <v>44</v>
+      </c>
+      <c r="G148" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="H148" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
-      <c r="C149" s="8">
+      <c r="C149" s="7">
         <v>-1.5</v>
       </c>
       <c r="D149" s="2">
@@ -3366,14 +3968,18 @@
       <c r="E149" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1" t="s">
+      <c r="F149" s="7">
+        <f>SUM($B$3:C149)</f>
+        <v>42.5</v>
+      </c>
+      <c r="G149" s="1"/>
+      <c r="H149" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
-      <c r="C150" s="8">
+      <c r="C150" s="7">
         <v>-1</v>
       </c>
       <c r="D150" s="2">
@@ -3382,12 +3988,16 @@
       <c r="E150" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1" t="s">
+      <c r="F150" s="7">
+        <f>SUM($B$3:C150)</f>
+        <v>41.5</v>
+      </c>
+      <c r="G150" s="1"/>
+      <c r="H150" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1">
         <v>-0.5</v>
@@ -3398,32 +4008,40 @@
       <c r="E151" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1" t="s">
+      <c r="F151" s="7">
+        <f>SUM($B$3:C151)</f>
+        <v>41</v>
+      </c>
+      <c r="G151" s="1"/>
+      <c r="H151" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C152" s="8"/>
+      <c r="C152" s="7"/>
       <c r="D152" s="2">
         <v>45181</v>
       </c>
       <c r="E152" s="2">
         <v>45182</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F152" s="7">
+        <f>SUM($B$3:C152)</f>
+        <v>41</v>
+      </c>
+      <c r="G152" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="H152" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
-      <c r="C153" s="8">
+      <c r="C153" s="7">
         <v>-0.5</v>
       </c>
       <c r="D153" s="2">
@@ -3432,32 +4050,40 @@
       <c r="E153" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1" t="s">
+      <c r="F153" s="7">
+        <f>SUM($B$3:C153)</f>
+        <v>40.5</v>
+      </c>
+      <c r="G153" s="1"/>
+      <c r="H153" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C154" s="8"/>
+      <c r="C154" s="7"/>
       <c r="D154" s="2">
         <v>45193</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="F154" s="7">
+        <f>SUM($B$3:C154)</f>
+        <v>40.5</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="H154" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
-      <c r="C155" s="8">
+      <c r="C155" s="7">
         <v>-2</v>
       </c>
       <c r="D155" s="2">
@@ -3466,14 +4092,18 @@
       <c r="E155" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1" t="s">
+      <c r="F155" s="7">
+        <f>SUM($B$3:C155)</f>
+        <v>38.5</v>
+      </c>
+      <c r="G155" s="1"/>
+      <c r="H155" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
-      <c r="C156" s="8">
+      <c r="C156" s="7">
         <v>-2</v>
       </c>
       <c r="D156" s="2">
@@ -3482,14 +4112,18 @@
       <c r="E156" s="2">
         <v>45195</v>
       </c>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1" t="s">
+      <c r="F156" s="7">
+        <f>SUM($B$3:C156)</f>
+        <v>36.5</v>
+      </c>
+      <c r="G156" s="1"/>
+      <c r="H156" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
-      <c r="C157" s="8">
+      <c r="C157" s="7">
         <v>-1</v>
       </c>
       <c r="D157" s="2">
@@ -3498,32 +4132,40 @@
       <c r="E157" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1" t="s">
+      <c r="F157" s="7">
+        <f>SUM($B$3:C157)</f>
+        <v>35.5</v>
+      </c>
+      <c r="G157" s="1"/>
+      <c r="H157" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>1</v>
       </c>
-      <c r="C158" s="8"/>
+      <c r="C158" s="7"/>
       <c r="D158" s="2">
         <v>45212</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="F158" s="7">
+        <f>SUM($B$3:C158)</f>
+        <v>36.5</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="H158" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
-      <c r="C159" s="8">
+      <c r="C159" s="7">
         <v>-1</v>
       </c>
       <c r="D159" s="2">
@@ -3532,14 +4174,18 @@
       <c r="E159" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1" t="s">
+      <c r="F159" s="7">
+        <f>SUM($B$3:C159)</f>
+        <v>35.5</v>
+      </c>
+      <c r="G159" s="1"/>
+      <c r="H159" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
-      <c r="C160" s="8">
+      <c r="C160" s="7">
         <v>-0.5</v>
       </c>
       <c r="D160" s="2">
@@ -3548,14 +4194,18 @@
       <c r="E160" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1" t="s">
+      <c r="F160" s="7">
+        <f>SUM($B$3:C160)</f>
+        <v>35</v>
+      </c>
+      <c r="G160" s="1"/>
+      <c r="H160" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
-      <c r="C161" s="8">
+      <c r="C161" s="7">
         <v>-0.5</v>
       </c>
       <c r="D161" s="2">
@@ -3564,14 +4214,18 @@
       <c r="E161" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1" t="s">
+      <c r="F161" s="7">
+        <f>SUM($B$3:C161)</f>
+        <v>34.5</v>
+      </c>
+      <c r="G161" s="1"/>
+      <c r="H161" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
-      <c r="C162" s="8">
+      <c r="C162" s="7">
         <v>-2.5</v>
       </c>
       <c r="D162" s="2">
@@ -3580,14 +4234,18 @@
       <c r="E162" s="2">
         <v>45228</v>
       </c>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1" t="s">
+      <c r="F162" s="7">
+        <f>SUM($B$3:C162)</f>
+        <v>32</v>
+      </c>
+      <c r="G162" s="1"/>
+      <c r="H162" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
-      <c r="C163" s="8">
+      <c r="C163" s="7">
         <v>-0.5</v>
       </c>
       <c r="D163" s="2">
@@ -3596,14 +4254,18 @@
       <c r="E163" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1" t="s">
+      <c r="F163" s="7">
+        <f>SUM($B$3:C163)</f>
+        <v>31.5</v>
+      </c>
+      <c r="G163" s="1"/>
+      <c r="H163" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
-      <c r="C164" s="8">
+      <c r="C164" s="7">
         <v>-0.5</v>
       </c>
       <c r="D164" s="2">
@@ -3612,32 +4274,40 @@
       <c r="E164" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1" t="s">
+      <c r="F164" s="7">
+        <f>SUM($B$3:C164)</f>
+        <v>31</v>
+      </c>
+      <c r="G164" s="1"/>
+      <c r="H164" s="15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>2</v>
       </c>
-      <c r="C165" s="8"/>
+      <c r="C165" s="7"/>
       <c r="D165" s="2">
         <v>45238</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="F165" s="7">
+        <f>SUM($B$3:C165)</f>
+        <v>33</v>
+      </c>
+      <c r="G165" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G165" s="1" t="s">
+      <c r="H165" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
-      <c r="C166" s="8">
+      <c r="C166" s="7">
         <v>-1</v>
       </c>
       <c r="D166" s="2">
@@ -3646,14 +4316,18 @@
       <c r="E166" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F166" s="1"/>
-      <c r="G166" s="4" t="s">
+      <c r="F166" s="7">
+        <f>SUM($B$3:C166)</f>
+        <v>32</v>
+      </c>
+      <c r="G166" s="1"/>
+      <c r="H166" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
-      <c r="C167" s="8">
+      <c r="C167" s="7">
         <v>-2</v>
       </c>
       <c r="D167" s="2">
@@ -3662,32 +4336,40 @@
       <c r="E167" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F167" s="1"/>
-      <c r="G167" s="4" t="s">
+      <c r="F167" s="7">
+        <f>SUM($B$3:C167)</f>
+        <v>30</v>
+      </c>
+      <c r="G167" s="1"/>
+      <c r="H167" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>1</v>
       </c>
-      <c r="C168" s="8"/>
+      <c r="C168" s="7"/>
       <c r="D168" s="2">
         <v>45241</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F168" s="7">
+        <f>SUM($B$3:C168)</f>
+        <v>31</v>
+      </c>
+      <c r="G168" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G168" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H168" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
-      <c r="C169" s="8">
+      <c r="C169" s="7">
         <v>-1</v>
       </c>
       <c r="D169" s="2">
@@ -3696,14 +4378,18 @@
       <c r="E169" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F169" s="1"/>
-      <c r="G169" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F169" s="7">
+        <f>SUM($B$3:C169)</f>
+        <v>30</v>
+      </c>
+      <c r="G169" s="1"/>
+      <c r="H169" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
-      <c r="C170" s="8">
+      <c r="C170" s="7">
         <v>-2</v>
       </c>
       <c r="D170" s="2">
@@ -3712,30 +4398,38 @@
       <c r="E170" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F170" s="1"/>
-      <c r="G170" s="4" t="s">
+      <c r="F170" s="7">
+        <f>SUM($B$3:C170)</f>
+        <v>28</v>
+      </c>
+      <c r="G170" s="1"/>
+      <c r="H170" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>1</v>
       </c>
-      <c r="C171" s="8"/>
+      <c r="C171" s="7"/>
       <c r="D171" s="2">
         <v>45247</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F171" s="1"/>
-      <c r="G171" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F171" s="7">
+        <f>SUM($B$3:C171)</f>
+        <v>29</v>
+      </c>
+      <c r="G171" s="1"/>
+      <c r="H171" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
-      <c r="C172" s="8">
+      <c r="C172" s="7">
         <v>-1</v>
       </c>
       <c r="D172" s="2">
@@ -3744,30 +4438,38 @@
       <c r="E172" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F172" s="1"/>
-      <c r="G172" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F172" s="7">
+        <f>SUM($B$3:C172)</f>
+        <v>28</v>
+      </c>
+      <c r="G172" s="1"/>
+      <c r="H172" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>1</v>
       </c>
-      <c r="C173" s="8"/>
+      <c r="C173" s="7"/>
       <c r="D173" s="2">
         <v>45250</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F173" s="1"/>
-      <c r="G173" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F173" s="7">
+        <f>SUM($B$3:C173)</f>
+        <v>29</v>
+      </c>
+      <c r="G173" s="1"/>
+      <c r="H173" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
-      <c r="C174" s="8">
+      <c r="C174" s="7">
         <v>-5</v>
       </c>
       <c r="D174" s="2">
@@ -3776,71 +4478,102 @@
       <c r="E174" s="2">
         <v>45253</v>
       </c>
-      <c r="F174" s="1"/>
-      <c r="G174" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F174" s="7">
+        <f>SUM($B$3:C174)</f>
+        <v>24</v>
+      </c>
+      <c r="G174" s="1"/>
+      <c r="H174" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>1</v>
       </c>
-      <c r="C175" s="8"/>
+      <c r="C175" s="7"/>
       <c r="D175" s="2">
         <v>45254</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F175" s="1"/>
-      <c r="G175" s="4" t="s">
+      <c r="F175" s="7">
+        <f>SUM($B$3:C175)</f>
+        <v>25</v>
+      </c>
+      <c r="G175" s="1"/>
+      <c r="H175" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B176" s="1">
+        <v>1</v>
+      </c>
+      <c r="C176" s="7"/>
+      <c r="D176" s="2">
+        <v>45256</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F176" s="7">
+        <f>SUM($B$3:C176)</f>
+        <v>26</v>
+      </c>
+      <c r="G176" s="1"/>
+      <c r="H176" s="15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B176" s="1"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
       <c r="G177" s="1"/>
-    </row>
-    <row r="178" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="10" t="s">
+      <c r="H177" s="15"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B178" s="1"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="15"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="15"/>
+    </row>
+    <row r="180" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B179" s="9" t="s">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B181" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
-      <c r="E179">
-        <f>SUM(B3:B177)+SUM(C3:C177)</f>
-        <v>25</v>
-      </c>
-      <c r="F179" s="10" t="s">
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="G181">
+        <f>SUM(B3:B179)+SUM(C3:C179)</f>
+        <v>26</v>
+      </c>
+      <c r="H181" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G179" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B179:D179"/>
-    <mergeCell ref="A178:XFD178"/>
-    <mergeCell ref="F179:G179"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3852,7 +4585,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3866,16 +4599,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4438,7 +5171,7 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -4470,7 +5203,7 @@
         <v>-9</v>
       </c>
       <c r="F40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -4486,7 +5219,7 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E38F423-A320-4A05-B03F-16192CBDC6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316D8637-63D1-4A1F-8F47-C85ED9AA5A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18930" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="165">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -504,9 +504,6 @@
     <t>1am phone lock. No adverse reaction</t>
   </si>
   <si>
-    <t>went to sleep past 2am</t>
-  </si>
-  <si>
     <t>2am power-off #Fr night</t>
   </si>
   <si>
@@ -520,6 +517,18 @@
   </si>
   <si>
     <t>CompuThink 4D not too late</t>
+  </si>
+  <si>
+    <t>went to sleep past 2am #Fr night</t>
+  </si>
+  <si>
+    <t>went to sleep past 2am #Mo night</t>
+  </si>
+  <si>
+    <t>use of force when dad takes phone</t>
+  </si>
+  <si>
+    <t>get up as promised at 7.15</t>
   </si>
 </sst>
 </file>
@@ -929,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H181"/>
+  <dimension ref="A2:H183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C141" workbookViewId="0">
-      <selection activeCell="H175" sqref="H175"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="K184" sqref="K184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
@@ -4364,7 +4373,7 @@
         <v>13</v>
       </c>
       <c r="H168" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
@@ -4424,7 +4433,7 @@
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">
@@ -4484,7 +4493,7 @@
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
@@ -4504,7 +4513,7 @@
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="15" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
@@ -4524,52 +4533,103 @@
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B177" s="1"/>
+      <c r="B177" s="1">
+        <v>1</v>
+      </c>
       <c r="C177" s="7"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
+      <c r="D177" s="2">
+        <v>45257</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F177" s="7">
+        <f>SUM($B$3:C177)</f>
+        <v>27</v>
+      </c>
       <c r="G177" s="1"/>
-      <c r="H177" s="15"/>
+      <c r="H177" s="15" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B178" s="1"/>
+      <c r="B178" s="1">
+        <v>1</v>
+      </c>
       <c r="C178" s="7"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
+      <c r="D178" s="2">
+        <v>45257</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F178" s="7">
+        <f>SUM($B$3:C178)</f>
+        <v>28</v>
+      </c>
       <c r="G178" s="1"/>
-      <c r="H178" s="15"/>
+      <c r="H178" s="15" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
+      <c r="C179" s="7">
+        <v>-1</v>
+      </c>
+      <c r="D179" s="2">
+        <v>45258</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F179" s="7">
+        <f>SUM($B$3:C179)</f>
+        <v>27</v>
+      </c>
       <c r="G179" s="1"/>
-      <c r="H179" s="15"/>
-    </row>
-    <row r="180" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="9" t="s">
+      <c r="H179" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B180" s="1"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="15"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="15"/>
+    </row>
+    <row r="182" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B181" s="8" t="s">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B183" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
-      <c r="G181">
-        <f>SUM(B3:B179)+SUM(C3:C179)</f>
-        <v>26</v>
-      </c>
-      <c r="H181" s="14" t="s">
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="G183">
+        <f>SUM(B3:B181)+SUM(C3:C181)</f>
+        <v>27</v>
+      </c>
+      <c r="H183" s="14" t="s">
         <v>40</v>
       </c>
     </row>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316D8637-63D1-4A1F-8F47-C85ED9AA5A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD2F527-C6F8-4FEB-9E6F-70F55F9B70C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18930" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="166">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t>get up as promised at 7.15</t>
+  </si>
+  <si>
+    <t>phone off on time</t>
   </si>
 </sst>
 </file>
@@ -940,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="K184" sqref="K184"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="H180" sqref="H180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4643,9 +4646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5284,9 +5287,16 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="2">
+        <v>45274</v>
+      </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD2F527-C6F8-4FEB-9E6F-70F55F9B70C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C36F19-96CC-487A-BB14-1F7F2D43844D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
     <sheet name="shout count" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="167">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -532,6 +523,9 @@
   </si>
   <si>
     <t>phone off on time</t>
+  </si>
+  <si>
+    <t>notified Song Ern right after midnight</t>
   </si>
 </sst>
 </file>
@@ -943,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H183"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="H180" sqref="H180"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="I182" sqref="I182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4601,12 +4595,23 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
-      <c r="C180" s="7"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
+      <c r="C180" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="D180" s="2">
+        <v>45278</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F180" s="7">
+        <f>SUM($B$3:C180)</f>
+        <v>26.5</v>
+      </c>
       <c r="G180" s="1"/>
-      <c r="H180" s="15"/>
+      <c r="H180" s="15" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
@@ -4630,7 +4635,7 @@
       <c r="D183" s="8"/>
       <c r="G183">
         <f>SUM(B3:B181)+SUM(C3:C181)</f>
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="H183" s="14" t="s">
         <v>40</v>
@@ -4646,8 +4651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C36F19-96CC-487A-BB14-1F7F2D43844D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E24CFD0-5E01-498B-9646-FA138E98E6DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="3435" windowWidth="21240" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
     <sheet name="shout count" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="168">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>notified Song Ern right after midnight</t>
+  </si>
+  <si>
+    <t>got up late for 10.15 as agreed, though not much delay for tuition</t>
   </si>
 </sst>
 </file>
@@ -935,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H183"/>
+  <dimension ref="A2:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="I182" sqref="I182"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="J178" sqref="J178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4614,30 +4617,68 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
+      <c r="B181" s="1">
+        <v>1</v>
+      </c>
+      <c r="C181" s="7"/>
+      <c r="D181" s="2">
+        <v>45282</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45283</v>
+      </c>
+      <c r="F181" s="7">
+        <f>SUM($B$3:C181)</f>
+        <v>27.5</v>
+      </c>
       <c r="G181" s="1"/>
-      <c r="H181" s="15"/>
-    </row>
-    <row r="182" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="9" t="s">
+      <c r="H181" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B182" s="1"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="15"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B183" s="1"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="15"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="15"/>
+    </row>
+    <row r="185" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B183" s="8" t="s">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B186" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="G183">
-        <f>SUM(B3:B181)+SUM(C3:C181)</f>
-        <v>26.5</v>
-      </c>
-      <c r="H183" s="14" t="s">
+      <c r="C186" s="8"/>
+      <c r="D186" s="8"/>
+      <c r="G186">
+        <f>SUM(B3:B184)+SUM(C3:C184)</f>
+        <v>27.5</v>
+      </c>
+      <c r="H186" s="14" t="s">
         <v>40</v>
       </c>
     </row>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E24CFD0-5E01-498B-9646-FA138E98E6DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADBE7DD-FA09-4ACC-A61F-A43A260BA564}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3090" yWindow="3435" windowWidth="21240" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="169">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t>got up late for 10.15 as agreed, though not much delay for tuition</t>
+  </si>
+  <si>
+    <t>went out before 11.30 to tuition</t>
   </si>
 </sst>
 </file>
@@ -940,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="J178" sqref="J178"/>
+    <sheetView tabSelected="1" topLeftCell="B152" workbookViewId="0">
+      <selection activeCell="H191" sqref="H191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4638,12 +4641,20 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
-      <c r="C182" s="7"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
+      <c r="C182" s="7">
+        <v>-1</v>
+      </c>
+      <c r="D182" s="2">
+        <v>45284</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F182" s="7"/>
       <c r="G182" s="1"/>
-      <c r="H182" s="15"/>
+      <c r="H182" s="15" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
@@ -4676,7 +4687,7 @@
       <c r="D186" s="8"/>
       <c r="G186">
         <f>SUM(B3:B184)+SUM(C3:C184)</f>
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="H186" s="14" t="s">
         <v>40</v>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADBE7DD-FA09-4ACC-A61F-A43A260BA564}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6773CBA-6944-42A5-AA02-893D179C2B64}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="3435" windowWidth="21240" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3570" yWindow="3435" windowWidth="21240" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
     <sheet name="shout count" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="170">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -532,6 +532,9 @@
   </si>
   <si>
     <t>went out before 11.30 to tuition</t>
+  </si>
+  <si>
+    <t>late sleep</t>
   </si>
 </sst>
 </file>
@@ -941,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H186"/>
+  <dimension ref="A2:H190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B152" workbookViewId="0">
-      <selection activeCell="H191" sqref="H191"/>
+      <selection activeCell="G184" sqref="G184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4657,39 +4660,85 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B183" s="1"/>
+      <c r="B183" s="1">
+        <v>1</v>
+      </c>
       <c r="C183" s="7"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
+      <c r="D183" s="2">
+        <v>45320</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F183" s="7"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="15"/>
+      <c r="G183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H183" s="15" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="7"/>
       <c r="G184" s="1"/>
       <c r="H184" s="15"/>
     </row>
-    <row r="185" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="9" t="s">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B185" s="1"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="15"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B186" s="1"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="15"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B187" s="1"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="15"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="15"/>
+    </row>
+    <row r="189" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B186" s="8" t="s">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B190" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
-      <c r="G186">
-        <f>SUM(B3:B184)+SUM(C3:C184)</f>
-        <v>26.5</v>
-      </c>
-      <c r="H186" s="14" t="s">
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="G190">
+        <f>SUM(B3:B188)+SUM(C3:C188)</f>
+        <v>27.5</v>
+      </c>
+      <c r="H190" s="14" t="s">
         <v>40</v>
       </c>
     </row>

--- a/msff/xls/lockUp{git.xlsx
+++ b/msff/xls/lockUp{git.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6773CBA-6944-42A5-AA02-893D179C2B64}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87532DE-5602-473E-B485-A82E4796A083}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="3435" windowWidth="21240" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="3435" windowWidth="21240" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lock-up accounting" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="171">
   <si>
     <t>CNY. See blog</t>
   </si>
@@ -535,6 +535,9 @@
   </si>
   <si>
     <t>late sleep</t>
+  </si>
+  <si>
+    <t>Touch session attended</t>
   </si>
 </sst>
 </file>
@@ -946,7 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B152" workbookViewId="0">
+    <sheetView topLeftCell="B152" workbookViewId="0">
       <selection activeCell="G184" sqref="G184"/>
     </sheetView>
   </sheetViews>
@@ -4752,9 +4755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5406,9 +5409,16 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="2">
+        <v>45315</v>
+      </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1">
+        <v>-4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
